--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.1952664870407</v>
+        <v>262.5012163683794</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.9092720409262</v>
+        <v>359.1657449715566</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.8049485339732</v>
+        <v>324.8874703637596</v>
       </c>
       <c r="AD2" t="n">
-        <v>238195.2664870407</v>
+        <v>262501.2163683794</v>
       </c>
       <c r="AE2" t="n">
-        <v>325909.2720409262</v>
+        <v>359165.7449715566</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.577669700142276e-06</v>
+        <v>6.619625630813945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.247916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>294804.9485339732</v>
+        <v>324887.4703637596</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.07097599771491</v>
+        <v>105.1813252653724</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.3438153616949</v>
+        <v>143.9137295005982</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.1903003517757</v>
+        <v>130.1788051412879</v>
       </c>
       <c r="AD3" t="n">
-        <v>93070.97599771491</v>
+        <v>105181.3252653724</v>
       </c>
       <c r="AE3" t="n">
-        <v>127343.8153616949</v>
+        <v>143913.7295005982</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.26923738761679e-06</v>
+        <v>1.159973054389979e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.423958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>115190.3003517757</v>
+        <v>130178.8051412879</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.97788473107546</v>
+        <v>104.0882339987329</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.8481996668963</v>
+        <v>142.4181138057996</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.8374241197785</v>
+        <v>128.8259289092906</v>
       </c>
       <c r="AD4" t="n">
-        <v>91977.88473107546</v>
+        <v>104088.2339987329</v>
       </c>
       <c r="AE4" t="n">
-        <v>125848.1996668963</v>
+        <v>142418.1138057996</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.338532490681852e-06</v>
+        <v>1.172794462702802e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.397916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>113837.4241197785</v>
+        <v>128825.9289092906</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.1306201004882</v>
+        <v>154.8944217417564</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.8376288987064</v>
+        <v>211.9333812865819</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.1471604565077</v>
+        <v>191.7067568270199</v>
       </c>
       <c r="AD2" t="n">
-        <v>143130.6201004882</v>
+        <v>154894.4217417564</v>
       </c>
       <c r="AE2" t="n">
-        <v>195837.6288987064</v>
+        <v>211933.3812865819</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.831556505733346e-06</v>
+        <v>9.209692365632387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.254166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>177147.1604565078</v>
+        <v>191706.7568270199</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.88825483959424</v>
+        <v>100.5667156262907</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.6208317445229</v>
+        <v>137.5998170102007</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.0135102587669</v>
+        <v>124.4674835973402</v>
       </c>
       <c r="AD3" t="n">
-        <v>88888.25483959424</v>
+        <v>100566.7156262907</v>
       </c>
       <c r="AE3" t="n">
-        <v>121620.8317445229</v>
+        <v>137599.8170102007</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.344483382821486e-06</v>
+        <v>1.209356448699627e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.478125</v>
       </c>
       <c r="AH3" t="n">
-        <v>110013.5102587669</v>
+        <v>124467.4835973402</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.53376353692842</v>
+        <v>109.9972955366702</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.1864863909059</v>
+        <v>150.5031524913979</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.1890392687285</v>
+        <v>136.1393428501611</v>
       </c>
       <c r="AD2" t="n">
-        <v>99533.76353692843</v>
+        <v>109997.2955366702</v>
       </c>
       <c r="AE2" t="n">
-        <v>136186.4863909059</v>
+        <v>150503.1524913979</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.780821486578852e-06</v>
+        <v>1.231163690846743e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.034375</v>
       </c>
       <c r="AH2" t="n">
-        <v>123189.0392687285</v>
+        <v>136139.3428501611</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.54634585575378</v>
+        <v>108.4045970935826</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.4165285551014</v>
+        <v>148.3239522166702</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.115021268475</v>
+        <v>134.1681223911259</v>
       </c>
       <c r="AD2" t="n">
-        <v>86546.34585575378</v>
+        <v>108404.5970935825</v>
       </c>
       <c r="AE2" t="n">
-        <v>118416.5285551014</v>
+        <v>148323.9522166702</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.154278668996485e-06</v>
+        <v>1.249531342705707e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.727083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>107115.021268475</v>
+        <v>134168.1223911259</v>
       </c>
     </row>
     <row r="3">
@@ -3042,28 +3042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.96118316392045</v>
+        <v>108.8194344017492</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.9841272614651</v>
+        <v>148.8915509230339</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.6284491509333</v>
+        <v>134.6815502735843</v>
       </c>
       <c r="AD3" t="n">
-        <v>86961.18316392045</v>
+        <v>108819.4344017492</v>
       </c>
       <c r="AE3" t="n">
-        <v>118984.1272614652</v>
+        <v>148891.5509230339</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.15202323323915e-06</v>
+        <v>1.249073411269413e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.728125</v>
       </c>
       <c r="AH3" t="n">
-        <v>107628.4491509333</v>
+        <v>134681.5502735843</v>
       </c>
     </row>
   </sheetData>
@@ -3339,28 +3339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.9871319971463</v>
+        <v>124.9095163905408</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.6480257038091</v>
+        <v>170.9067109444066</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.9384597419467</v>
+        <v>154.5956143209952</v>
       </c>
       <c r="AD2" t="n">
-        <v>104987.1319971463</v>
+        <v>124909.5163905408</v>
       </c>
       <c r="AE2" t="n">
-        <v>143648.025703809</v>
+        <v>170906.7109444066</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.277871437298517e-06</v>
+        <v>1.175278879568625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.452083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>129938.4597419467</v>
+        <v>154595.6143209952</v>
       </c>
     </row>
   </sheetData>
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.1309339399547</v>
+        <v>182.7148023945458</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.7299641778812</v>
+        <v>249.9984534442818</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.9501219827306</v>
+        <v>226.1389519226653</v>
       </c>
       <c r="AD2" t="n">
-        <v>159130.9339399547</v>
+        <v>182714.8023945458</v>
       </c>
       <c r="AE2" t="n">
-        <v>217729.9641778812</v>
+        <v>249998.4534442818</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.497410851561343e-06</v>
+        <v>8.503541041002244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>196950.1219827306</v>
+        <v>226138.9519226654</v>
       </c>
     </row>
     <row r="3">
@@ -3742,28 +3742,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.22264607377129</v>
+        <v>100.0146250553424</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.7101164665381</v>
+        <v>136.8444223345126</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.1897123687157</v>
+        <v>123.7841827292964</v>
       </c>
       <c r="AD3" t="n">
-        <v>88222.64607377129</v>
+        <v>100014.6250553424</v>
       </c>
       <c r="AE3" t="n">
-        <v>120710.1164665381</v>
+        <v>136844.4223345126</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.421945547377624e-06</v>
+        <v>1.214238132285575e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.426041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>109189.7123687157</v>
+        <v>123784.1827292964</v>
       </c>
     </row>
   </sheetData>
@@ -4039,28 +4039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.9526271639483</v>
+        <v>130.5518051335456</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.810279370096</v>
+        <v>178.6267393227933</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.3217193741207</v>
+        <v>161.5788540260791</v>
       </c>
       <c r="AD2" t="n">
-        <v>110952.6271639483</v>
+        <v>130551.8051335456</v>
       </c>
       <c r="AE2" t="n">
-        <v>151810.279370096</v>
+        <v>178626.7393227933</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.878636836999183e-06</v>
+        <v>1.118460058897148e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.821875</v>
       </c>
       <c r="AH2" t="n">
-        <v>137321.7193741207</v>
+        <v>161578.8540260791</v>
       </c>
     </row>
   </sheetData>
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.07330003872823</v>
+        <v>117.7785405174703</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.0834834509101</v>
+        <v>161.149795158424</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.6684983637055</v>
+        <v>145.7698848837064</v>
       </c>
       <c r="AD2" t="n">
-        <v>95073.30003872824</v>
+        <v>117778.5405174703</v>
       </c>
       <c r="AE2" t="n">
-        <v>130083.4834509101</v>
+        <v>161149.795158424</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.918712601602519e-06</v>
+        <v>1.160059490292235e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.736458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>117668.4983637055</v>
+        <v>145769.8848837064</v>
       </c>
     </row>
     <row r="3">
@@ -4442,28 +4442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.84168457133084</v>
+        <v>98.3223160925593</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.8206240151783</v>
+        <v>134.5289305522317</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.4805504249939</v>
+        <v>121.6896782329025</v>
       </c>
       <c r="AD3" t="n">
-        <v>86841.68457133084</v>
+        <v>98322.31609255931</v>
       </c>
       <c r="AE3" t="n">
-        <v>118820.6240151783</v>
+        <v>134528.9305522317</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.326095420890542e-06</v>
+        <v>1.239905959872312e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.560416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>107480.5504249939</v>
+        <v>121689.6782329025</v>
       </c>
     </row>
   </sheetData>
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.3871728482123</v>
+        <v>140.0331396227677</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.6649939331651</v>
+        <v>191.599519457897</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.8997734596003</v>
+        <v>173.3135302325039</v>
       </c>
       <c r="AD2" t="n">
-        <v>128387.1728482123</v>
+        <v>140033.1396227677</v>
       </c>
       <c r="AE2" t="n">
-        <v>175664.9939331651</v>
+        <v>191599.519457897</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.20606507590052e-06</v>
+        <v>1.000971736255871e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.047916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>158899.7734596003</v>
+        <v>173313.5302325039</v>
       </c>
     </row>
     <row r="3">
@@ -4845,28 +4845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.04021392657107</v>
+        <v>99.6008398465549</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.4605047544005</v>
+        <v>136.2782631569348</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.9639232480523</v>
+        <v>123.2720569890171</v>
       </c>
       <c r="AD3" t="n">
-        <v>88040.21392657107</v>
+        <v>99600.83984655491</v>
       </c>
       <c r="AE3" t="n">
-        <v>120460.5047544006</v>
+        <v>136278.2631569348</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.351271419560365e-06</v>
+        <v>1.221160912816663e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.498958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>108963.9232480523</v>
+        <v>123272.0569890171</v>
       </c>
     </row>
   </sheetData>
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.0297196581184</v>
+        <v>236.1376042670833</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.6894871245276</v>
+        <v>323.0938878139316</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.5689465990507</v>
+        <v>292.2582606261855</v>
       </c>
       <c r="AD2" t="n">
-        <v>200029.7196581184</v>
+        <v>236137.6042670833</v>
       </c>
       <c r="AE2" t="n">
-        <v>273689.4871245276</v>
+        <v>323093.8878139316</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.868166897168263e-06</v>
+        <v>7.206101542796976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.960416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>247568.9465990507</v>
+        <v>292258.2606261855</v>
       </c>
     </row>
     <row r="3">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.99489986429472</v>
+        <v>103.0025039576435</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.5032364059359</v>
+        <v>140.932570064553</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.6208222647759</v>
+        <v>127.4821633777344</v>
       </c>
       <c r="AD3" t="n">
-        <v>90994.89986429473</v>
+        <v>103002.5039576435</v>
       </c>
       <c r="AE3" t="n">
-        <v>124503.2364059359</v>
+        <v>140932.570064553</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.341999693635159e-06</v>
+        <v>1.181466441124303e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.415625</v>
       </c>
       <c r="AH3" t="n">
-        <v>112620.8222647759</v>
+        <v>127482.1633777344</v>
       </c>
     </row>
     <row r="4">
@@ -5354,28 +5354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.25825960972227</v>
+        <v>103.2658637030711</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.8635768282416</v>
+        <v>141.2929104868588</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.9467723029179</v>
+        <v>127.8081134158764</v>
       </c>
       <c r="AD4" t="n">
-        <v>91258.25960972227</v>
+        <v>103265.8637030711</v>
       </c>
       <c r="AE4" t="n">
-        <v>124863.5768282416</v>
+        <v>141292.9104868588</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.341411491103752e-06</v>
+        <v>1.181356863454008e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.415625</v>
       </c>
       <c r="AH4" t="n">
-        <v>112946.7723029178</v>
+        <v>127808.1134158764</v>
       </c>
     </row>
   </sheetData>
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.56199739428359</v>
+        <v>108.7176235179298</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.437943680615</v>
+        <v>148.752248780213</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.1343925644659</v>
+        <v>134.5555429317623</v>
       </c>
       <c r="AD2" t="n">
-        <v>86561.99739428359</v>
+        <v>108717.6235179298</v>
       </c>
       <c r="AE2" t="n">
-        <v>118437.943680615</v>
+        <v>148752.248780213</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.217251332223754e-06</v>
+        <v>1.246246385059116e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.665625</v>
       </c>
       <c r="AH2" t="n">
-        <v>107134.3925644659</v>
+        <v>134555.5429317623</v>
       </c>
     </row>
     <row r="3">
@@ -5757,28 +5757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.64071496976715</v>
+        <v>108.7963410934133</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.5456485401659</v>
+        <v>148.8599536397639</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.231818223386</v>
+        <v>134.6529685906825</v>
       </c>
       <c r="AD3" t="n">
-        <v>86640.71496976714</v>
+        <v>108796.3410934133</v>
       </c>
       <c r="AE3" t="n">
-        <v>118545.6485401659</v>
+        <v>148859.9536397639</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.231887270980812e-06</v>
+        <v>1.24918015511171e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.659375</v>
       </c>
       <c r="AH3" t="n">
-        <v>107231.818223386</v>
+        <v>134652.9685906825</v>
       </c>
     </row>
   </sheetData>
@@ -6054,28 +6054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.42783239989861</v>
+        <v>108.6329895590708</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.6226173332415</v>
+        <v>148.6364488639155</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.206002626386</v>
+        <v>134.45079479695</v>
       </c>
       <c r="AD2" t="n">
-        <v>87427.8323998986</v>
+        <v>108632.9895590708</v>
       </c>
       <c r="AE2" t="n">
-        <v>119622.6173332414</v>
+        <v>148636.4488639155</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.952323549243373e-06</v>
+        <v>1.245263311093284e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>108206.002626386</v>
+        <v>134450.79479695</v>
       </c>
     </row>
   </sheetData>
@@ -9844,28 +9844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.5555810403378</v>
+        <v>111.8210557517827</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.9528262953623</v>
+        <v>152.9985016763358</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.6913635752869</v>
+        <v>138.3965394111338</v>
       </c>
       <c r="AD2" t="n">
-        <v>101555.5810403378</v>
+        <v>111821.0557517827</v>
       </c>
       <c r="AE2" t="n">
-        <v>138952.8262953623</v>
+        <v>152998.5016763358</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.567703610614606e-06</v>
+        <v>1.210338461878723e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.207291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>125691.3635752869</v>
+        <v>138396.5394111338</v>
       </c>
     </row>
   </sheetData>
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.5981451399723</v>
+        <v>151.5376484760326</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.4266319977345</v>
+        <v>207.3404960140361</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.1115288737988</v>
+        <v>187.5522100787294</v>
       </c>
       <c r="AD2" t="n">
-        <v>132598.1451399723</v>
+        <v>151537.6484760326</v>
       </c>
       <c r="AE2" t="n">
-        <v>181426.6319977345</v>
+        <v>207340.4960140361</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.273927455843715e-06</v>
+        <v>1.016565169386581e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>164111.5288737988</v>
+        <v>187552.2100787294</v>
       </c>
     </row>
   </sheetData>
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.9082788192151</v>
+        <v>126.8694505669503</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.1718911901212</v>
+        <v>173.5883793507621</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.603205434477</v>
+        <v>157.0213480583943</v>
       </c>
       <c r="AD2" t="n">
-        <v>103908.2788192151</v>
+        <v>126869.4505669503</v>
       </c>
       <c r="AE2" t="n">
-        <v>142171.8911901212</v>
+        <v>173588.3793507621</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.60362800486905e-06</v>
+        <v>1.087427831907506e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.860416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>128603.205434477</v>
+        <v>157021.3480583943</v>
       </c>
     </row>
     <row r="3">
@@ -10544,28 +10544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.55204725013388</v>
+        <v>99.16064440585895</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.7925735713057</v>
+        <v>135.6759683349226</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.3597384796245</v>
+        <v>122.7272443394914</v>
       </c>
       <c r="AD3" t="n">
-        <v>87552.04725013388</v>
+        <v>99160.64440585894</v>
       </c>
       <c r="AE3" t="n">
-        <v>119792.5735713057</v>
+        <v>135675.9683349226</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.337125031043216e-06</v>
+        <v>1.229768665415746e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.529166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>108359.7384796245</v>
+        <v>122727.2443394914</v>
       </c>
     </row>
   </sheetData>
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.2869849126103</v>
+        <v>202.2606463208589</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.9401182239799</v>
+        <v>276.7419394060258</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.6588157128602</v>
+        <v>250.3300771189473</v>
       </c>
       <c r="AD2" t="n">
-        <v>178286.9849126103</v>
+        <v>202260.6463208589</v>
       </c>
       <c r="AE2" t="n">
-        <v>243940.1182239799</v>
+        <v>276741.9394060258</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.169903315946467e-06</v>
+        <v>7.824374178741939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.704166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>220658.8157128602</v>
+        <v>250330.0771189473</v>
       </c>
     </row>
     <row r="3">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.1336090127338</v>
+        <v>102.0351883708375</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.3247802653601</v>
+        <v>139.6090462037339</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.5548363242827</v>
+        <v>126.284954776614</v>
       </c>
       <c r="AD3" t="n">
-        <v>90133.6090127338</v>
+        <v>102035.1883708375</v>
       </c>
       <c r="AE3" t="n">
-        <v>123324.7802653601</v>
+        <v>139609.0462037339</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.35293807470904e-06</v>
+        <v>1.192060363625421e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.43125</v>
       </c>
       <c r="AH3" t="n">
-        <v>111554.8363242827</v>
+        <v>126284.954776614</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.7449975002019</v>
+        <v>194.2255763899017</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.1478618497833</v>
+        <v>265.7480022442284</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.3737501224409</v>
+        <v>240.3853858897806</v>
       </c>
       <c r="AD2" t="n">
-        <v>166744.9975002019</v>
+        <v>194225.5763899017</v>
       </c>
       <c r="AE2" t="n">
-        <v>228147.8618497833</v>
+        <v>265748.0022442284</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.377784254001025e-06</v>
+        <v>8.447582080791459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.876041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>206373.7501224409</v>
+        <v>240385.3858897806</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.76252078331252</v>
+        <v>108.3050738774265</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.7123086279519</v>
+        <v>148.1877801616711</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.3825725063027</v>
+        <v>134.0449464059372</v>
       </c>
       <c r="AD2" t="n">
-        <v>86762.52078331253</v>
+        <v>108305.0738774264</v>
       </c>
       <c r="AE2" t="n">
-        <v>118712.3086279519</v>
+        <v>148187.7801616711</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.071974405720799e-06</v>
+        <v>1.25039164518238e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.801041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>107382.5725063026</v>
+        <v>134044.9464059372</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.76211443596755</v>
+        <v>112.1993882389427</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.8164849962448</v>
+        <v>153.5161528761192</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.0950520422547</v>
+        <v>138.8647867069382</v>
       </c>
       <c r="AD2" t="n">
-        <v>89762.11443596755</v>
+        <v>112199.3882389427</v>
       </c>
       <c r="AE2" t="n">
-        <v>122816.4849962448</v>
+        <v>153516.1528761192</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.111873363229486e-06</v>
+        <v>1.210874640045893e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.679166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>111095.0520422547</v>
+        <v>138864.7867069382</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.62786802896503</v>
+        <v>97.97451621231006</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.5280707889934</v>
+        <v>134.0530554122271</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.2159180681149</v>
+        <v>121.2592199483649</v>
       </c>
       <c r="AD3" t="n">
-        <v>86627.86802896502</v>
+        <v>97974.51621231006</v>
       </c>
       <c r="AE3" t="n">
-        <v>118528.0707889934</v>
+        <v>134053.0554122271</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.287805510511828e-06</v>
+        <v>1.245730037540654e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.604166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107215.9180681149</v>
+        <v>121259.2199483649</v>
       </c>
     </row>
   </sheetData>
